--- a/pfo/lien/TablSynth.xlsx
+++ b/pfo/lien/TablSynth.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'Tableau de synthèse Épreuve E4'!$A$1:$H$29</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'Tableau de synthèse Épreuve E4'!$A$1:$H$24</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t xml:space="preserve">BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -72,7 +72,8 @@
     <t xml:space="preserve">Travailler en mode projet</t>
   </si>
   <si>
-    <t xml:space="preserve">Mettre à disposition des utilisateurs un service informatique</t>
+    <t xml:space="preserve">Mettre à disposition des utilisateurs un service informatique
+</t>
   </si>
   <si>
     <t xml:space="preserve">Organiser son développement professionnel</t>
@@ -130,15 +131,49 @@
       <rPr>
         <b val="true"/>
         <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Capegimini,pdf  / Projet gantt de capgimini,pdf /Capgemini Excel,png
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Capegimini,pdf  / gantt de capgimini,pdf /Capgemini Excel,png
 </t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve"> 
+10/10/23
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Veille Technologique sur le sujet « les processeurs »        Voir </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="13"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">veilletecno.md</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Debut 
+18/12/23
+</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b val="true"/>
@@ -147,8 +182,262 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Veille Technologique sur le sujet « les processeurs »
+      <t xml:space="preserve">  Création de mon Portfolio     </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="14"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">shafikagip.fr</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Debut 
+03/10/23
 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">EasyTrainFx  </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="13"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Voir sur gitlab</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">12/09/24
+12/03/25</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">site_web                                                                                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="13"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">agip1_site_web/dossier /compte rendu site_web,pdf</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">31/01/24
+09/02/24</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="13"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Projet Covoiturage</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="13"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: Creation du page connexion en php et le page web « login</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> »</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">01/12/24
+28/04/25</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Projet MyEasyTrain : </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="13"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">UTTC</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (Ultimate Train Traffic Controller), une application innovante dédiée à la gestion du trafic ferroviaire. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">01/11/24
+28/04/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réalisations en milieu professionnel en cours de première année</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Rédaction d’un cahier des charges pour un tableau de bord : Analyse des besoins des marchands et définition des spécifications pour l’implémentation d’une solution automatisée de suivi des transactions.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="13"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Voir sur gitlab</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">10/05/24
+24/05/24</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Création d’un site vitrine                                                                       </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="13"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">huch.tech</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (index,html/style,css)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">31/05/24
+20/06/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réalisations en milieu professionnel en cours de seconde année</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Cahier_Technique                                                                                </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="13"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Cahier_Technique_Assemblage__Minis_PC,pdf</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+11/02/25
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Divers Intervention système ( problème d’écran, installation des périphérique avec ip, installation des pc avec tous les périphérique</t>
     </r>
     <r>
       <rPr>
@@ -158,112 +447,105 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">VeilleTechno,md
+      <t xml:space="preserve"> ) ex :</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">config ip via tiplink 1,png</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">06/01/25
+14/02/25</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Dépannage et support technique Interventions sur site et à distance    ex :</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="13"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> teamV,png</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+16/02/25
 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Création de mon Portfolio
+  </si>
+  <si>
+    <t xml:space="preserve">Sécurité et maintenance Mise en place de stratégies de sauvegarde création d’un cloud « nas »</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+10/02/25
 </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Shafikagip,fr</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Création d’une clé bootable pour installer tails
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Gestion du logiciel Akead (Créé des modeles de bon de commande avec les clients) ex :Montrer comment faire une model de </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="13"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">factu,png</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">17/01/25
+04/02/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réalisations personnel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rénovation de mon ordinateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+05/02/25
 </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Compte rendu clé tails</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Présentation Fiche métier                                           FicheMetier,pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EasyTrainFx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">site_web                                                                                     agip1_site_web/dossier /compte rendu site_web,pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covoiturage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ULTIMATE TRAIN TRAFFIC CONTROLLER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Réalisations en milieu professionnel en cours de première année</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participation aux échanges avec les prestataires, suivi du développement et coordination des différentes phases du projet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Développement d’un tableau de bord : Analyse des besoins des marchands, rédaction d’un cahier des charges détaillé, et collaboration avec un prestataire pour l’implémentation d’une solution automatisée de suivi des transactions. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Création d’un site vitrine                                                          huch,tech (index,html/style,css)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mettre le bios a jour + tout les pilotes a jour </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Réalisations en milieu professionnel en cours de seconde année</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cahier_Technique                                                                               Cahier_Technique_Assemblage__Minis_PC,pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Divers Intervention système ( problème d’écran, problème de périphérique, installation des nouveau arrivant )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dépannage et support technique Interventions sur site et à distance    ex teamV,pnj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sécurité et maintenance Mise en place de stratégies de sauvegarde création d’un cloud « nas »</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gestion de projet et organisation Collaboration avec les équipes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Réalisations personnel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rénovation de mon ordinateur</t>
   </si>
   <si>
     <t xml:space="preserve">Assemblage de mon ordinateur
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+05/10/22
 </t>
   </si>
 </sst>
@@ -271,11 +553,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* \-??\ [$€-1]_-"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -326,7 +609,7 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="14"/>
+      <sz val="15"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
@@ -359,16 +642,72 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="14"/>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="13"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="14"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="13"/>
+      <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
+      <sz val="13"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -627,7 +966,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -716,55 +1055,71 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1021,17 +1376,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="70.42"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="2" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="23.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="2" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="9" style="3" width="11.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="44" style="2" width="10.85"/>
   </cols>
@@ -1095,7 +1451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="24.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="32.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
@@ -1133,7 +1489,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" s="19" customFormat="true" ht="293.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" s="19" customFormat="true" ht="242.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="13"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
@@ -1167,297 +1523,272 @@
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
     </row>
-    <row r="9" s="26" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" s="27" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="22" t="s">
+        <v>25</v>
+      </c>
       <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="25"/>
-    </row>
-    <row r="10" s="26" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="28"/>
-    </row>
-    <row r="11" s="26" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="26"/>
+    </row>
+    <row r="10" s="27" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="30"/>
+    </row>
+    <row r="11" s="27" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="0"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="28"/>
-    </row>
-    <row r="12" s="26" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="28"/>
-    </row>
-    <row r="13" s="26" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="29"/>
-    </row>
-    <row r="14" s="26" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21" t="s">
+      <c r="B11" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="28"/>
-    </row>
-    <row r="15" s="26" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="30" t="s">
+      <c r="C11" s="25"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="30"/>
+    </row>
+    <row r="12" s="27" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="0"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="0"/>
-      <c r="F15" s="0"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="0"/>
-    </row>
-    <row r="16" s="26" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="21" t="s">
+      <c r="B12" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-    </row>
-    <row r="17" s="26" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="21" t="s">
+      <c r="C12" s="32"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+    </row>
+    <row r="13" s="27" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="29"/>
-    </row>
-    <row r="18" s="19" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="31" t="s">
+      <c r="B13" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-    </row>
-    <row r="19" s="26" customFormat="true" ht="67.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="21" t="s">
+      <c r="C13" s="30"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+    </row>
+    <row r="14" s="27" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="29"/>
-    </row>
-    <row r="20" s="26" customFormat="true" ht="67.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="33" t="s">
+      <c r="B14" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="22"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+    </row>
+    <row r="15" s="27" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+    </row>
+    <row r="16" s="19" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+    </row>
+    <row r="17" s="27" customFormat="true" ht="67.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="26"/>
+    </row>
+    <row r="18" s="27" customFormat="true" ht="55.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="26"/>
+    </row>
+    <row r="19" s="19" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+    </row>
+    <row r="20" s="27" customFormat="true" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>45</v>
+      </c>
       <c r="C20" s="23"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="28"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
       <c r="G20" s="23"/>
-      <c r="H20" s="29"/>
-    </row>
-    <row r="21" s="26" customFormat="true" ht="55.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
+      <c r="H20" s="26"/>
+    </row>
+    <row r="21" s="27" customFormat="true" ht="50.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="28"/>
-    </row>
-    <row r="22" s="26" customFormat="true" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="22"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="26"/>
+    </row>
+    <row r="22" s="27" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>49</v>
+      </c>
       <c r="C22" s="23"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="27"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="32"/>
       <c r="F22" s="23"/>
       <c r="G22" s="23"/>
-      <c r="H22" s="29"/>
-    </row>
-    <row r="23" s="19" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-    </row>
-    <row r="24" s="26" customFormat="true" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="29"/>
-    </row>
-    <row r="25" s="26" customFormat="true" ht="50.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="29"/>
-    </row>
-    <row r="26" s="26" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="29"/>
-    </row>
-    <row r="27" s="26" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="29"/>
-    </row>
-    <row r="28" s="26" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="29"/>
-    </row>
-    <row r="29" s="26" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="29"/>
-    </row>
-    <row r="30" s="19" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-    </row>
-    <row r="31" s="26" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="29"/>
-    </row>
-    <row r="32" s="26" customFormat="true" ht="29.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="29"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3"/>
-    </row>
+      <c r="H22" s="26"/>
+    </row>
+    <row r="23" s="27" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="26"/>
+    </row>
+    <row r="24" s="27" customFormat="true" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="26"/>
+    </row>
+    <row r="25" s="19" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+    </row>
+    <row r="26" s="27" customFormat="true" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="26"/>
+    </row>
+    <row r="27" s="27" customFormat="true" ht="29.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="26"/>
+    </row>
+    <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3"/>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="A1:F1"/>
@@ -1470,10 +1801,25 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A25:H25"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A9" r:id="rId1" display="Capegimini,pdf  / gantt de capgimini,pdf /Capgemini Excel,png"/>
+    <hyperlink ref="A10" r:id="rId2" display="veilletecno.md"/>
+    <hyperlink ref="A11" r:id="rId3" display="shafikagip.fr"/>
+    <hyperlink ref="A12" r:id="rId4" display="Voir sur gitlab"/>
+    <hyperlink ref="A13" r:id="rId5" display="agip1_site_web/dossier /compte rendu site_web,pdf"/>
+    <hyperlink ref="A14" r:id="rId6" display="Projet Covoiturage"/>
+    <hyperlink ref="A15" r:id="rId7" display="UTTC"/>
+    <hyperlink ref="A17" r:id="rId8" display="Voir sur gitlab"/>
+    <hyperlink ref="A18" r:id="rId9" display="huch.tech"/>
+    <hyperlink ref="A20" r:id="rId10" display="Cahier_Technique_Assemblage__Minis_PC,pdf"/>
+    <hyperlink ref="A21" r:id="rId11" display="config ip via tiplink 1,png"/>
+    <hyperlink ref="A22" r:id="rId12" display=" teamV,png"/>
+    <hyperlink ref="A24" r:id="rId13" display="factu,png"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="true"/>
   <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.196527777777778" bottom="0.196527777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
